--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tfpi-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.16067711516722</v>
+        <v>5.451731666666667</v>
       </c>
       <c r="H2">
-        <v>4.16067711516722</v>
+        <v>16.355195</v>
       </c>
       <c r="I2">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="J2">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>28.3815689106681</v>
+        <v>44.32930588687667</v>
       </c>
       <c r="R2">
-        <v>28.3815689106681</v>
+        <v>398.96375298189</v>
       </c>
       <c r="S2">
-        <v>0.002969871557796401</v>
+        <v>0.004019102394489609</v>
       </c>
       <c r="T2">
-        <v>0.002969871557796401</v>
+        <v>0.00401910239448961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.16067711516722</v>
+        <v>5.451731666666667</v>
       </c>
       <c r="H3">
-        <v>4.16067711516722</v>
+        <v>16.355195</v>
       </c>
       <c r="I3">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="J3">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>1009.691373374785</v>
+        <v>1326.822819530358</v>
       </c>
       <c r="R3">
-        <v>1009.691373374785</v>
+        <v>11941.40537577322</v>
       </c>
       <c r="S3">
-        <v>0.1056549657764347</v>
+        <v>0.1202959681941828</v>
       </c>
       <c r="T3">
-        <v>0.1056549657764347</v>
+        <v>0.1202959681941829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.16067711516722</v>
+        <v>5.451731666666667</v>
       </c>
       <c r="H4">
-        <v>4.16067711516722</v>
+        <v>16.355195</v>
       </c>
       <c r="I4">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="J4">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>367.4769532278711</v>
+        <v>566.6673729187139</v>
       </c>
       <c r="R4">
-        <v>367.4769532278711</v>
+        <v>5100.006356268426</v>
       </c>
       <c r="S4">
-        <v>0.0384531015523568</v>
+        <v>0.05137671681998914</v>
       </c>
       <c r="T4">
-        <v>0.0384531015523568</v>
+        <v>0.05137671681998915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.16067711516722</v>
+        <v>5.451731666666667</v>
       </c>
       <c r="H5">
-        <v>4.16067711516722</v>
+        <v>16.355195</v>
       </c>
       <c r="I5">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="J5">
-        <v>0.1592594528097062</v>
+        <v>0.1922099906071488</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>116.4126024028362</v>
+        <v>182.1900540009289</v>
       </c>
       <c r="R5">
-        <v>116.4126024028362</v>
+        <v>1639.71048600836</v>
       </c>
       <c r="S5">
-        <v>0.01218151392311828</v>
+        <v>0.01651820319848723</v>
       </c>
       <c r="T5">
-        <v>0.01218151392311828</v>
+        <v>0.01651820319848723</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.7608485892929</v>
+        <v>15.797976</v>
       </c>
       <c r="H6">
-        <v>15.7608485892929</v>
+        <v>47.393928</v>
       </c>
       <c r="I6">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="J6">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>107.5107723925471</v>
+        <v>128.457039582384</v>
       </c>
       <c r="R6">
-        <v>107.5107723925471</v>
+        <v>1156.113356241456</v>
       </c>
       <c r="S6">
-        <v>0.01125001884463589</v>
+        <v>0.01164651656608607</v>
       </c>
       <c r="T6">
-        <v>0.01125001884463589</v>
+        <v>0.01164651656608608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.7608485892929</v>
+        <v>15.797976</v>
       </c>
       <c r="H7">
-        <v>15.7608485892929</v>
+        <v>47.393928</v>
       </c>
       <c r="I7">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="J7">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>3824.76034962295</v>
+        <v>3844.854505102433</v>
       </c>
       <c r="R7">
-        <v>3824.76034962295</v>
+        <v>34603.69054592189</v>
       </c>
       <c r="S7">
-        <v>0.4002261824737592</v>
+        <v>0.3485925086974133</v>
       </c>
       <c r="T7">
-        <v>0.4002261824737592</v>
+        <v>0.3485925086974134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.7608485892929</v>
+        <v>15.797976</v>
       </c>
       <c r="H8">
-        <v>15.7608485892929</v>
+        <v>47.393928</v>
       </c>
       <c r="I8">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="J8">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>1392.020687874592</v>
+        <v>1642.08330576668</v>
       </c>
       <c r="R8">
-        <v>1392.020687874592</v>
+        <v>14778.74975190012</v>
       </c>
       <c r="S8">
-        <v>0.1456622310695796</v>
+        <v>0.1488789597337699</v>
       </c>
       <c r="T8">
-        <v>0.1456622310695796</v>
+        <v>0.1488789597337699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.7608485892929</v>
+        <v>15.797976</v>
       </c>
       <c r="H9">
-        <v>15.7608485892929</v>
+        <v>47.393928</v>
       </c>
       <c r="I9">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="J9">
-        <v>0.6032826034486782</v>
+        <v>0.5569842765993244</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>440.9766366316355</v>
+        <v>527.9485999180159</v>
       </c>
       <c r="R9">
-        <v>440.9766366316355</v>
+        <v>4751.537399262144</v>
       </c>
       <c r="S9">
-        <v>0.0461441710607035</v>
+        <v>0.04786629160205507</v>
       </c>
       <c r="T9">
-        <v>0.0461441710607035</v>
+        <v>0.04786629160205508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.33811914164623</v>
+        <v>3.587063</v>
       </c>
       <c r="H10">
-        <v>3.33811914164623</v>
+        <v>10.761189</v>
       </c>
       <c r="I10">
-        <v>0.1277741610792642</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="J10">
-        <v>0.1277741610792642</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>22.77058657238415</v>
+        <v>29.167248625742</v>
       </c>
       <c r="R10">
-        <v>22.77058657238415</v>
+        <v>262.505237631678</v>
       </c>
       <c r="S10">
-        <v>0.002382733584197493</v>
+        <v>0.002644439303686397</v>
       </c>
       <c r="T10">
-        <v>0.002382733584197493</v>
+        <v>0.002644439303686398</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.33811914164623</v>
+        <v>3.587063</v>
       </c>
       <c r="H11">
-        <v>3.33811914164623</v>
+        <v>10.761189</v>
       </c>
       <c r="I11">
-        <v>0.1277741610792642</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="J11">
-        <v>0.1277741610792642</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>810.0773040837076</v>
+        <v>873.0064747304494</v>
       </c>
       <c r="R11">
-        <v>810.0773040837076</v>
+        <v>7857.058272574045</v>
       </c>
       <c r="S11">
-        <v>0.08476717945322201</v>
+        <v>0.07915085388316007</v>
       </c>
       <c r="T11">
-        <v>0.08476717945322201</v>
+        <v>0.07915085388316008</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.33811914164623</v>
+        <v>3.587063</v>
       </c>
       <c r="H12">
-        <v>3.33811914164623</v>
+        <v>10.761189</v>
       </c>
       <c r="I12">
-        <v>0.1277741610792642</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="J12">
-        <v>0.1277741610792642</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>294.8274566204814</v>
+        <v>372.8487920878817</v>
       </c>
       <c r="R12">
-        <v>294.8274566204814</v>
+        <v>3355.639128790935</v>
       </c>
       <c r="S12">
-        <v>0.03085099631491825</v>
+        <v>0.03380421694142944</v>
       </c>
       <c r="T12">
-        <v>0.03085099631491825</v>
+        <v>0.03380421694142945</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.33811914164623</v>
+        <v>3.587063</v>
       </c>
       <c r="H13">
-        <v>3.33811914164623</v>
+        <v>10.761189</v>
       </c>
       <c r="I13">
-        <v>0.1277741610792642</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="J13">
-        <v>0.1277741610792642</v>
+        <v>0.1264679532473782</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>93.39805172412218</v>
+        <v>119.8751592398747</v>
       </c>
       <c r="R13">
-        <v>93.39805172412218</v>
+        <v>1078.876433158872</v>
       </c>
       <c r="S13">
-        <v>0.009773251726926399</v>
+        <v>0.01086844311910225</v>
       </c>
       <c r="T13">
-        <v>0.009773251726926399</v>
+        <v>0.01086844311910225</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.86550528949455</v>
+        <v>3.526644000000001</v>
       </c>
       <c r="H14">
-        <v>2.86550528949455</v>
+        <v>10.579932</v>
       </c>
       <c r="I14">
-        <v>0.1096837826623514</v>
+        <v>0.1243377795461487</v>
       </c>
       <c r="J14">
-        <v>0.1096837826623514</v>
+        <v>0.1243377795461487</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>19.54670684278871</v>
+        <v>28.675967598696</v>
       </c>
       <c r="R14">
-        <v>19.54670684278871</v>
+        <v>258.083708388264</v>
       </c>
       <c r="S14">
-        <v>0.002045384061878346</v>
+        <v>0.002599897465896142</v>
       </c>
       <c r="T14">
-        <v>0.002045384061878346</v>
+        <v>0.002599897465896142</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.86550528949455</v>
+        <v>3.526644000000001</v>
       </c>
       <c r="H15">
-        <v>2.86550528949455</v>
+        <v>10.579932</v>
       </c>
       <c r="I15">
-        <v>0.1096837826623514</v>
+        <v>0.1243377795461487</v>
       </c>
       <c r="J15">
-        <v>0.1096837826623514</v>
+        <v>0.1243377795461487</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>695.3858449182206</v>
+        <v>858.3019160994082</v>
       </c>
       <c r="R15">
-        <v>695.3858449182206</v>
+        <v>7724.717244894674</v>
       </c>
       <c r="S15">
-        <v>0.07276576742523104</v>
+        <v>0.0778176697598908</v>
       </c>
       <c r="T15">
-        <v>0.07276576742523104</v>
+        <v>0.07781766975989081</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.86550528949455</v>
+        <v>3.526644000000001</v>
       </c>
       <c r="H16">
-        <v>2.86550528949455</v>
+        <v>10.579932</v>
       </c>
       <c r="I16">
-        <v>0.1096837826623514</v>
+        <v>0.1243377795461487</v>
       </c>
       <c r="J16">
-        <v>0.1096837826623514</v>
+        <v>0.1243377795461487</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>253.0855252870265</v>
+        <v>366.56868182242</v>
       </c>
       <c r="R16">
-        <v>253.0855252870265</v>
+        <v>3299.118136401781</v>
       </c>
       <c r="S16">
-        <v>0.02648308504740123</v>
+        <v>0.03323483274511501</v>
       </c>
       <c r="T16">
-        <v>0.02648308504740123</v>
+        <v>0.03323483274511502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.86550528949455</v>
+        <v>3.526644000000001</v>
       </c>
       <c r="H17">
-        <v>2.86550528949455</v>
+        <v>10.579932</v>
       </c>
       <c r="I17">
-        <v>0.1096837826623514</v>
+        <v>0.1243377795461487</v>
       </c>
       <c r="J17">
-        <v>0.1096837826623514</v>
+        <v>0.1243377795461487</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>80.1746731879593</v>
+        <v>117.856031823904</v>
       </c>
       <c r="R17">
-        <v>80.1746731879593</v>
+        <v>1060.704286415136</v>
       </c>
       <c r="S17">
-        <v>0.008389546127840788</v>
+        <v>0.01068537957524672</v>
       </c>
       <c r="T17">
-        <v>0.008389546127840788</v>
+        <v>0.01068537957524673</v>
       </c>
     </row>
   </sheetData>
